--- a/biology/Médecine/Initiative_Hôpital_Ami_des_bébés/Initiative_Hôpital_Ami_des_bébés.xlsx
+++ b/biology/Médecine/Initiative_Hôpital_Ami_des_bébés/Initiative_Hôpital_Ami_des_bébés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Initiative_H%C3%B4pital_Ami_des_b%C3%A9b%C3%A9s</t>
+          <t>Initiative_Hôpital_Ami_des_bébés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Initiative Hôpital Ami des Bébés (IHAB) est un programme international centré sur les besoins des nouveau-nés lancé en 1991 par l’OMS et l’UNICEF afin de faire des maternités des centres de soutien à l'allaitement maternel [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Initiative Hôpital Ami des Bébés (IHAB) est un programme international centré sur les besoins des nouveau-nés lancé en 1991 par l’OMS et l’UNICEF afin de faire des maternités des centres de soutien à l'allaitement maternel .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Initiative_H%C3%B4pital_Ami_des_b%C3%A9b%C3%A9s</t>
+          <t>Initiative_Hôpital_Ami_des_bébés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Critères du label</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une maternité peut obtenir l'appellation « amie des bébés » lorsque, en vue d'encourager un allaitement efficace, elle met en œuvre dix conditions particulières.
 « 1. Disposer d'une politique écrite sur l'allaitement maternel qui est examinée régulièrement avec le personnel de soins de santé ;
@@ -524,7 +538,7 @@
 8. Encourager l'allaitement maternel lorsque la mère le demande ;
 9. Ne pas donner de tétines aux bébés qui sont allaités ;
 10. Contribuer à la création de groupes de soutien consacrés à l'allaitement maternel et aider les mères à y avoir accès lorsqu'elles sortent de l'hôpital ou de la clinique. »
-— site de l'UNICEF[1].</t>
+— site de l'UNICEF.</t>
         </is>
       </c>
     </row>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Initiative_H%C3%B4pital_Ami_des_b%C3%A9b%C3%A9s</t>
+          <t>Initiative_Hôpital_Ami_des_bébés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-En France, le label « Amis des bébés » est accordé à un établissement qui met en œuvre les Dix Conditions, ne fait pas la promotion de substituts du lait maternel, biberons et tétines, possède depuis plus d'un an un registre de suivi des modes d'alimentation des nouveau-nés, avec un taux d'allaitement maternel exclusif en progression ou supérieur à 75 %. Enfin, l'établissement doit collaborer avec les PMI, groupes de mères, généralistes, pédiatres, sages-femmes libérales, et associations pour assurer un suivi en dehors de la maternité.
-Fin 2022, les 59 maternités ayant obtenu le label « Amis des bébés » sont[2] :
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En France, le label « Amis des bébés » est accordé à un établissement qui met en œuvre les Dix Conditions, ne fait pas la promotion de substituts du lait maternel, biberons et tétines, possède depuis plus d'un an un registre de suivi des modes d'alimentation des nouveau-nés, avec un taux d'allaitement maternel exclusif en progression ou supérieur à 75 %. Enfin, l'établissement doit collaborer avec les PMI, groupes de mères, généralistes, pédiatres, sages-femmes libérales, et associations pour assurer un suivi en dehors de la maternité.
+Fin 2022, les 59 maternités ayant obtenu le label « Amis des bébés » sont :
 Maternité de l'hôpital privé Albert Schweitzer de Colmar (2021),
 Maternité de l'hôpital privé de Villeneuve-d'Ascq (2018),
 Maternité de la clinique Adassa/Rhéna à Strasbourg (2008, 2013, 2019, 2022),
@@ -615,12 +634,81 @@
 Maternité et Néonatalogie du CH de Montélimar (2021),
 Maternité et Néonatalogie du CH Saint Jean de Perpignan (2022),
 Maternité et Néonatalogie du CH Yves Le Foll de Saint-Brieuc (2015, 2019),
-Maternité et Néonatalogie du Pôle santé Léonard de Vinci de Chambray Les Tours (2019).
-En Europe
-Fin 2011, on comptait environ 650 établissements labellisés dans 17 pays d'Europe. La quasi- totalité des maternités en Suède et en Norvège ont obtenu le label « Amis des bébés ». La Grèce et l'Islande sont les seuls pays où aucun établissement n'a encore obtenu le label.[réf. nécessaire]
+Maternité et Néonatalogie du Pôle santé Léonard de Vinci de Chambray Les Tours (2019).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Initiative_Hôpital_Ami_des_bébés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Initiative_H%C3%B4pital_Ami_des_b%C3%A9b%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le label dans le monde</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2011, on comptait environ 650 établissements labellisés dans 17 pays d'Europe. La quasi- totalité des maternités en Suède et en Norvège ont obtenu le label « Amis des bébés ». La Grèce et l'Islande sont les seuls pays où aucun établissement n'a encore obtenu le label.[réf. nécessaire]
 Il existe un plan d'action européen élaboré à Innocenti en 2004 et révisé en 2008, destiné à soutenir l'allaitement maternel et encourager le développement des établissements labellisés.
-Ailleurs dans le monde
-Plus de 20 000 établissements de 134 pays ont obtenu l'appellation « Amis des bébés ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Initiative_Hôpital_Ami_des_bébés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Initiative_H%C3%B4pital_Ami_des_b%C3%A9b%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le label dans le monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ailleurs dans le monde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 20 000 établissements de 134 pays ont obtenu l'appellation « Amis des bébés ».
 </t>
         </is>
       </c>
